--- a/Final Test Data.xlsx
+++ b/Final Test Data.xlsx
@@ -526,16 +526,16 @@
         <v>9653719.9</v>
       </c>
       <c r="J2" t="n">
-        <v>784447.925408546</v>
+        <v>688307.5510076137</v>
       </c>
       <c r="K2" t="n">
-        <v>624626.2686925447</v>
+        <v>633186.9419317616</v>
       </c>
       <c r="L2" t="n">
-        <v>876530.410084679</v>
+        <v>775035.2065316344</v>
       </c>
       <c r="M2" t="n">
-        <v>704015.2746673214</v>
+        <v>712420.0651001015</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
         <v>18264428.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1307043.059989253</v>
+        <v>1260058.578931904</v>
       </c>
       <c r="K3" t="n">
-        <v>1271067.401142397</v>
+        <v>1282281.012875688</v>
       </c>
       <c r="L3" t="n">
-        <v>1469698.759028275</v>
+        <v>1413255.438083681</v>
       </c>
       <c r="M3" t="n">
-        <v>1411301.174245474</v>
+        <v>1422239.432561247</v>
       </c>
     </row>
     <row r="4">
@@ -612,16 +612,16 @@
         <v>10720728.7</v>
       </c>
       <c r="J4" t="n">
-        <v>769090.1941536149</v>
+        <v>738589.5847541089</v>
       </c>
       <c r="K4" t="n">
-        <v>744823.0604189836</v>
+        <v>751950.1743426092</v>
       </c>
       <c r="L4" t="n">
-        <v>865661.356953593</v>
+        <v>829544.8904273655</v>
       </c>
       <c r="M4" t="n">
-        <v>828081.9847136898</v>
+        <v>835045.6171247229</v>
       </c>
     </row>
     <row r="5">
@@ -655,16 +655,16 @@
         <v>18777148.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1353594.293850672</v>
+        <v>1331409.121111143</v>
       </c>
       <c r="K5" t="n">
-        <v>1248453.733369803</v>
+        <v>1239039.106639018</v>
       </c>
       <c r="L5" t="n">
-        <v>1533822.724334476</v>
+        <v>1501156.812972522</v>
       </c>
       <c r="M5" t="n">
-        <v>1403837.854408969</v>
+        <v>1394118.126076698</v>
       </c>
     </row>
     <row r="6">
@@ -698,16 +698,16 @@
         <v>32078114.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2303788.772459934</v>
+        <v>2243679.95666909</v>
       </c>
       <c r="K6" t="n">
-        <v>2159482.113526017</v>
+        <v>2157428.560842621</v>
       </c>
       <c r="L6" t="n">
-        <v>2612783.341997411</v>
+        <v>2534705.711240039</v>
       </c>
       <c r="M6" t="n">
-        <v>2425882.089737156</v>
+        <v>2423305.452334199</v>
       </c>
     </row>
     <row r="7">
@@ -741,16 +741,16 @@
         <v>41845929.40000001</v>
       </c>
       <c r="J7" t="n">
-        <v>3026223.440184605</v>
+        <v>2954652.168463362</v>
       </c>
       <c r="K7" t="n">
-        <v>2795415.582090965</v>
+        <v>2783128.465630074</v>
       </c>
       <c r="L7" t="n">
-        <v>3425605.198384481</v>
+        <v>3330808.868291364</v>
       </c>
       <c r="M7" t="n">
-        <v>3139742.963128338</v>
+        <v>3126779.749041206</v>
       </c>
     </row>
     <row r="8">
@@ -784,16 +784,16 @@
         <v>297688124.8</v>
       </c>
       <c r="J8" t="n">
-        <v>20754954.19715289</v>
+        <v>20540821.20948786</v>
       </c>
       <c r="K8" t="n">
-        <v>20684422.84924884</v>
+        <v>20751118.86907979</v>
       </c>
       <c r="L8" t="n">
-        <v>23467780.4547352</v>
+        <v>23095889.76559405</v>
       </c>
       <c r="M8" t="n">
-        <v>23023288.71205885</v>
+        <v>23085392.29531628</v>
       </c>
     </row>
     <row r="9">
@@ -827,16 +827,16 @@
         <v>238221849.8</v>
       </c>
       <c r="J9" t="n">
-        <v>16634574.52274686</v>
+        <v>16441623.00424981</v>
       </c>
       <c r="K9" t="n">
-        <v>16476467.92828858</v>
+        <v>16520789.41145229</v>
       </c>
       <c r="L9" t="n">
-        <v>18841798.18504583</v>
+        <v>18520491.03351302</v>
       </c>
       <c r="M9" t="n">
-        <v>18379428.00946176</v>
+        <v>18420012.97074377</v>
       </c>
     </row>
     <row r="10">
@@ -870,16 +870,16 @@
         <v>17541563.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1307486.847288686</v>
+        <v>1221222.462646787</v>
       </c>
       <c r="K10" t="n">
-        <v>1179600.728763706</v>
+        <v>1189871.359363376</v>
       </c>
       <c r="L10" t="n">
-        <v>1475636.055644057</v>
+        <v>1379593.369667514</v>
       </c>
       <c r="M10" t="n">
-        <v>1324570.736401201</v>
+        <v>1334556.713838103</v>
       </c>
     </row>
     <row r="11">
@@ -913,16 +913,16 @@
         <v>110426880.3</v>
       </c>
       <c r="J11" t="n">
-        <v>7741612.395529552</v>
+        <v>7646822.111145169</v>
       </c>
       <c r="K11" t="n">
-        <v>7581064.564106594</v>
+        <v>7589009.35114764</v>
       </c>
       <c r="L11" t="n">
-        <v>8780140.555823468</v>
+        <v>8624957.234830759</v>
       </c>
       <c r="M11" t="n">
-        <v>8476432.652973089</v>
+        <v>8482619.356652685</v>
       </c>
     </row>
     <row r="12">
@@ -956,16 +956,16 @@
         <v>47358359.40000001</v>
       </c>
       <c r="J12" t="n">
-        <v>3322261.236836117</v>
+        <v>3330162.920451522</v>
       </c>
       <c r="K12" t="n">
-        <v>3188051.457491622</v>
+        <v>3162761.516548321</v>
       </c>
       <c r="L12" t="n">
-        <v>3777113.168395582</v>
+        <v>3758564.062899727</v>
       </c>
       <c r="M12" t="n">
-        <v>3580202.503797744</v>
+        <v>3554142.561959549</v>
       </c>
     </row>
     <row r="13">
@@ -999,16 +999,16 @@
         <v>33402639.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2352709.427846754</v>
+        <v>2260558.937626127</v>
       </c>
       <c r="K13" t="n">
-        <v>2331370.264703819</v>
+        <v>2361576.390307112</v>
       </c>
       <c r="L13" t="n">
-        <v>2670708.742711656</v>
+        <v>2560065.788831091</v>
       </c>
       <c r="M13" t="n">
-        <v>2605533.691077218</v>
+        <v>2635201.488182747</v>
       </c>
     </row>
     <row r="14">
@@ -1042,16 +1042,16 @@
         <v>95469623.7</v>
       </c>
       <c r="J14" t="n">
-        <v>6650609.810772763</v>
+        <v>6553021.814271568</v>
       </c>
       <c r="K14" t="n">
-        <v>6572147.39936411</v>
+        <v>6594814.295873213</v>
       </c>
       <c r="L14" t="n">
-        <v>7570497.550083074</v>
+        <v>7419415.757226863</v>
       </c>
       <c r="M14" t="n">
-        <v>7365229.530988637</v>
+        <v>7386339.185825613</v>
       </c>
     </row>
   </sheetData>
